--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45671.69804398148</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45119.33660879629</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45471</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44501</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45950.57366898148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45526</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44314</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>45604</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44817.71167824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45838.50899305556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45204.51549768518</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45281</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>46042</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45836</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44958</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>45393.45601851852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45153</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>45824.44601851852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45943</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45846.45840277777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45264</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44750.46633101852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45478.48630787037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>45702.51854166666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44748.4893287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>45321</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>45260</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45686.32912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>45153</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45629.88878472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>45783.57771990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45793.45925925926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>45793.45805555556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44239</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44448.39219907407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44448.37072916667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44512</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44586</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44656.34143518518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44631.6496875</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44280.59298611111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44293.36452546297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44355.41885416667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44617.45087962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44683</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44544.59994212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44355.64831018518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44488</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44313</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44721</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44351.26809027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44830</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>44691</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44817</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44817</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44538.65876157407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44342.40263888889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44825.57486111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44462.72489583334</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44734</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44837</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44586</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44678.86274305556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44854</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44873</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44237</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44538.48643518519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44285.64561342593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44511.53631944444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44544</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44886.31664351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44887.43643518518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44502.54430555556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>44475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44447</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44491</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>44463</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>44292.56182870371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>44523.31064814814</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>44350</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>44447.71224537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>44447.6977662037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>44511.74078703704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44330.35582175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44306.27186342593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>44286</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>44606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>44605.77613425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>44845</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>44845.48042824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>44342</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44845</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44325</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44624</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44886</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>44298</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44463</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44769</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44285.4638425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44886.33082175926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44323</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44673.38596064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44753</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44873</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44544.39546296297</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44565</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44393</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44550</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44882.34469907408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44246</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44245</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44529.59217592593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44642</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44505.4665625</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44678</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44726</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>45321</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>45673.56837962963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>45678.54986111111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>45268.4834375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44489.4964699074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44489.54841435186</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>45575.45246527778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45561.63293981482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45351.45969907408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44750</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44515</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44740</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44897</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>45660.41302083333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44958</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44552</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>45110.43325231481</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>45294</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>45294</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45034</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>45050.43728009259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>45050.44355324074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45054</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45577.38703703704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>45351.63769675926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44728</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45232.6234837963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45119.50736111111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45119.51900462963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45588.65774305556</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>45510</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45000</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45212.28642361111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45197.46625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44234</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>45762.41231481481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>45650.84388888889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>45629.84854166667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>45510.56855324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>45240.34545138889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>45240.40409722222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>45630</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>45462.70604166666</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44639</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>45728.63600694444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>45749.54398148148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>45015.62293981481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>45727.68160879629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45666.28506944444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44910.71126157408</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>45730.64863425926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45379.3350462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>45379.33895833333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44889.42746527777</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>44916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>45462.53766203704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>44354.87269675926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>45638.48190972222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>45356.63008101852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44804.61065972222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45798</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>45231.6437037037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>45798.6024537037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>45803.62123842593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>45801.81144675926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>45294.55914351852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45800.59861111111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44420.49086805555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>45406.64324074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>45803.67650462963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>45803.62251157407</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45225</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>44844.45476851852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>45271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>45805.41142361111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>45223</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>44980</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>45267.40234953703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45887.39331018519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>45180.63178240741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>45538.9009375</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>45749.54219907407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>45715.56043981481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>45888.40994212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>44897.45479166666</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45888.45876157407</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>45888.4877662037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>45888.41420138889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>45274</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>45321</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>45208.56241898148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>45812.63560185185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>45812</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44656</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>45812.51912037037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45812.51744212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>45812</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45190.60921296296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45126.68759259259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45582.46026620371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45758.58627314815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45816.7725</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45817.635625</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45895.44659722222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45666.57021990741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>44581.41039351852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45816.77730324074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45119.55572916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45895.44291666667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45622.25892361111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45233</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45576</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45817.62829861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45735</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45818.35608796297</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45819.51068287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>45819.51217592593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44858.56605324074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>45562.38952546296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>45898.42802083334</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>45821.58231481481</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>45821.58418981481</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>45821.59480324074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>45316.24631944444</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>45316</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>45902.39866898148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>45727.60891203704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>45902.40304398148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>45294</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>45671.69181712963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>45472.91881944444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>45120</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>45120.93417824074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>45120</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>45637</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45258</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>45194</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45823.90710648148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45909.19603009259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45412.39409722222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45537.49616898148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45909.44909722222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>45525.36525462963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44987.49986111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17669,7 +17669,7 @@
         <v>45727.64140046296</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>45727.64462962963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17783,7 +17783,7 @@
         <v>45734.43109953704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>44630</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>45915.58019675926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17954,7 +17954,7 @@
         <v>44888</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45730.58797453704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45730.59189814814</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45741</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45720.42122685185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>44389</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45120</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>45120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>44958</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>45723.46748842593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>45827</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45826.4077662037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>45715.84982638889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>45917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45917.89658564814</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44377.42493055556</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>45917.85200231482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>45917.86940972223</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>45350</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>45922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>45922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>45832.43942129629</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44993.76420138889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>45832.36346064815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>45922</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>45925.5033912037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>45832.434375</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>45097</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45832.71377314815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>45924.57015046296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>45629.84033564815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>45925.50118055556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>45058</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>45379.44914351852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>45264</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>45929.49510416666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>45730</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45929.49907407408</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>45723.50204861111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20311,7 +20311,7 @@
         <v>45931</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45931</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45931</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44467</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>45930.38498842593</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>45930.62087962963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>45930.84449074074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>45931</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45839</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45839</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45836.42394675926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44351</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45836.41789351852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45140</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45935.72084490741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45935.58040509259</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45935.5899074074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45841.50565972222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45611.4719212963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45938.48791666667</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45184</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>45582.50539351852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44547.38486111111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>45937.66361111111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>45104.70768518518</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>45211</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>45938.49927083333</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44630</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45803.61898148148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45841.9329050926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45197.56680555556</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45392.32388888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45914.90981481481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45841.92826388889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44644</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45940.74016203704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45671.63178240741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45842.45538194444</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45842.47792824074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45943</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45841.92988425926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>45937.66010416667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>45944.33063657407</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>45846.65206018519</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>45196</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44656.46391203703</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>45944</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45316</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>45316</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>45593.53931712963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>45946.64105324074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45202</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>45096</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>45947.63052083334</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>45947.63421296296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>45848.46100694445</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>45848.45915509259</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>45456.87540509259</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>45947.46091435185</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>45947.47458333334</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44914.61417824074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45599.53886574074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>45379.33655092592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>45855.29523148148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>45855.3478125</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44571.43929398148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>45855.34162037037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>45855.70284722222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>45240</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>45215.36408564815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>45547.33547453704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45860</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>45839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>45839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>45392.32304398148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>45952.66685185185</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45863.6363425926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45952.64878472222</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>45866.57512731481</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>45866</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>45343</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>45864.64525462963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>45547.33179398148</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>45867.59960648148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>45868.69075231482</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>45868.69543981482</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>45868.65326388889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>45868.6805787037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>45953.85310185186</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>45392.32523148148</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>45953.87792824074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44882</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>45776.489375</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>45577.37951388889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>45610.69145833333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>45873.40289351852</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>45870.70042824074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>45870.70177083334</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>45870</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>44964.60105324074</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
         <v>45567.66493055555</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>45646.49038194444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>45959.74376157407</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26331,7 +26331,7 @@
         <v>45612.44818287037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26388,7 +26388,7 @@
         <v>45205</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26445,7 +26445,7 @@
         <v>45675.38304398148</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26502,7 +26502,7 @@
         <v>45196</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45678</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45951</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45393.46065972222</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45961.57664351852</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>45301</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45877.46954861111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45960.31606481481</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>45960.70804398148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>45961.48994212963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45308</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45685.68934027778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45964.4425462963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45968.45446759259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44266</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>45968.44337962963</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45784.45983796296</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45646.48758101852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45053.91832175926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>44859</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45974</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45210.44561342592</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>44848</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45273.56533564815</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45979.47361111111</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45979.47140046296</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>44592</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         <v>45315.46555555556</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28237,7 +28237,7 @@
         <v>45981.54357638889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28294,7 +28294,7 @@
         <v>44896.43377314815</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>45511.4987962963</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45085.35982638889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>45985.62841435185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>45472.87659722222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45982</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>45982</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45982</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45985.49490740741</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45412.38614583333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45982</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>45357.68982638889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44742.39810185185</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44964</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>45985</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>45546.37292824074</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45103.55524305555</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45989.47251157407</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45453.46512731481</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45988.64767361111</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45224</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45762</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>46035.48997685185</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>45992.65892361111</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>45264.83583333333</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45608</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29811,7 +29811,7 @@
         <v>45608.65652777778</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>45629.79951388889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>45629.80734953703</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>45629.82334490741</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>45308</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>45119</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>45093</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>45176.60104166667</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>45603.57885416667</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>46036.47381944444</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>46036.47501157408</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>45845</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>46037.44241898148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>45294</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>45294</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>46037.42465277778</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>45817</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>45994.48487268519</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>45994.49568287037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>45308</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44958</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>46041.606875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>45770.4802662037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>45770.49056712963</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>45678.53453703703</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44941.67449074074</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>45268.47841435186</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>45329.88466435186</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>45996.37564814815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>45637</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44900</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>46042.58833333333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>46042.88488425926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>45629.81206018518</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45321</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>45321</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>46044.46568287037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>45120</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32002,7 +32002,7 @@
         <v>45217.54106481482</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         <v>45577.37418981481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>44704</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>45483.41152777777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>45483.41474537037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44897</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44652</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>45546.36957175926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>46008.48265046296</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>46008.39219907407</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>45678</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>45204.37236111111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32691,7 +32691,7 @@
         <v>45772.42921296296</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32748,7 +32748,7 @@
         <v>46008.70103009259</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         <v>45050.44099537037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44839</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32919,7 +32919,7 @@
         <v>45054</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32976,7 +32976,7 @@
         <v>45120</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>45569.58503472222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33090,7 +33090,7 @@
         <v>44959</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33147,7 +33147,7 @@
         <v>45162.51400462963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33204,7 +33204,7 @@
         <v>44964</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44639.43059027778</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>45210.50472222222</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>45715.56778935185</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>45294</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45688.77064814815</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45688.47015046296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>45212</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>45239</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>45538.42341435186</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>45713</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>45713.68238425926</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45604</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>45698.59190972222</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>45699.40152777778</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>45701.76197916667</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>45702</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>45700</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>45701.7716087963</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>45688.48753472222</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>45711.66600694445</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>45670</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>45699.41542824074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>45615</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44958</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>45148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>45015</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44546.44887731481</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>45205</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>46052</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>46059.30708333333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>45044.62524305555</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45582.51785879629</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>45348.60578703704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>45189</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>45771.49827546296</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>45593.24111111111</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>45548</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>45674.66657407407</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35442,7 +35442,7 @@
         <v>45756</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>45440.46910879629</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>45670.45423611111</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>44866</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>45058.47872685185</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>45321</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>45474.63335648148</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44866</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44879</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>45240.40667824074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>45240.42798611111</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>45113.25549768518</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>45126</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>45197.4696412037</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>45186.96988425926</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>45211</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>45477</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>45119</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44771</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36535,7 +36535,7 @@
         <v>45225.44538194445</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36592,7 +36592,7 @@
         <v>44875.70405092592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36649,7 +36649,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         <v>45631</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>45321</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
         <v>45231.64703703704</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>45120</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36939,7 +36939,7 @@
         <v>44995</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36996,7 +36996,7 @@
         <v>45289.42331018519</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         <v>45545.75199074074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37110,7 +37110,7 @@
         <v>45769.38744212963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37167,7 +37167,7 @@
         <v>45579.45614583333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         <v>45099</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37286,7 +37286,7 @@
         <v>45337</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37343,7 +37343,7 @@
         <v>45579.44858796296</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37400,7 +37400,7 @@
         <v>45392.32475694444</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37457,7 +37457,7 @@
         <v>45673.57069444445</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37514,7 +37514,7 @@
         <v>44564.85040509259</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>45062</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45062</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37685,7 +37685,7 @@
         <v>45611.5891550926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37742,7 +37742,7 @@
         <v>45670.44511574074</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37799,7 +37799,7 @@
         <v>44445.46506944444</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37856,7 +37856,7 @@
         <v>44266.38083333334</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37913,7 +37913,7 @@
         <v>44266.3884837963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37970,7 +37970,7 @@
         <v>45364.62685185186</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38027,7 +38027,7 @@
         <v>45693.54440972222</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38084,7 +38084,7 @@
         <v>45007</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38141,7 +38141,7 @@
         <v>44949</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38198,7 +38198,7 @@
         <v>45684.38349537037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>45670</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>45671.46813657408</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44577.44398148148</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>45472.88256944445</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>45098</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>45187</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>45636.46734953704</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>45119.72554398148</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>45119</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>45119.8443287037</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>45762</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>44916</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38949,7 +38949,7 @@
         <v>45120</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39006,7 +39006,7 @@
         <v>45120</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39063,7 +39063,7 @@
         <v>45632</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39120,7 +39120,7 @@
         <v>44236</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>45275</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44837.45231481481</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>45048.4243287037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44546.4675462963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39405,7 +39405,7 @@
         <v>44746</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39462,7 +39462,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39519,7 +39519,7 @@
         <v>45516.44384259259</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>45176.47136574074</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>45216</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44454.33140046296</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44992.52275462963</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>45273.5790625</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         <v>45755</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>45119</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39980,7 +39980,7 @@
         <v>45421.43105324074</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40037,7 +40037,7 @@
         <v>44589</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40094,7 +40094,7 @@
         <v>45194</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40151,7 +40151,7 @@
         <v>45119.91186342593</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40208,7 +40208,7 @@
         <v>44748.42736111111</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40270,7 +40270,7 @@
         <v>45302.36549768518</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>45432</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45638.55909722222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>45216</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45321</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>44914.61763888889</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45168.94686342592</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45119.87762731482</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45741.44355324074</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40793,7 +40793,7 @@
         <v>45593.24738425926</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40850,7 +40850,7 @@
         <v>44448</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40907,7 +40907,7 @@
         <v>45582.48012731481</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40964,7 +40964,7 @@
         <v>45675.39164351852</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>45629.87395833333</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45453</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>45776.3533912037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>45783.47327546297</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         <v>45782.47429398148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>45783.47040509259</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>45475.4787037037</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>45587.43356481481</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>45209.67533564815</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>45721.90905092593</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41591,7 +41591,7 @@
         <v>45784</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41648,7 +41648,7 @@
         <v>45785.67664351852</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41705,7 +41705,7 @@
         <v>45596.54247685185</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41762,7 +41762,7 @@
         <v>45789.58822916666</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41819,7 +41819,7 @@
         <v>45789.59091435185</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41876,7 +41876,7 @@
         <v>45142</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45726.63133101852</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45792.48877314815</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45671.69804398148</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45119.33660879629</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45471</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44501</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45950.57366898148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45526</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44314</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>45604</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44817.71167824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45838.50899305556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45204.51549768518</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45281</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>46042</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45836</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44958</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>45393.45601851852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45153</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>45824.44601851852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45943</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45846.45840277777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45264</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44750.46633101852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45478.48630787037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>45702.51854166666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44748.4893287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>45321</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>45260</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45686.32912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>45153</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45629.88878472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>45783.57771990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45793.45925925926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>45793.45805555556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44239</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44448.39219907407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44448.37072916667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44512</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44586</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44656.34143518518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44631.6496875</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44280.59298611111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44293.36452546297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44355.41885416667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44617.45087962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44683</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44544.59994212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44355.64831018518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44488</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44313</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44721</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44351.26809027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44830</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>44691</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44817</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44817</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44538.65876157407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44342.40263888889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44825.57486111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44462.72489583334</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44734</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44837</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44586</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44678.86274305556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44854</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44873</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44237</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44538.48643518519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44285.64561342593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44511.53631944444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44544</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44886.31664351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44887.43643518518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44502.54430555556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>44475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44447</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44491</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>44463</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>44292.56182870371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>44523.31064814814</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>44350</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>44447.71224537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>44447.6977662037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>44511.74078703704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44330.35582175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44306.27186342593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>44286</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>44606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>44605.77613425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>44845</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>44845.48042824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>44342</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44845</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>44325</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44624</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44886</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>44298</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44463</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44769</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44285.4638425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44886.33082175926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44323</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44673.38596064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44753</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44873</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44544.39546296297</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44565</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44393</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44550</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44882.34469907408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44246</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44245</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44529.59217592593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44642</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44505.4665625</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44678</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44726</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>45321</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>45673.56837962963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>45678.54986111111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>45268.4834375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44489.4964699074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44489.54841435186</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>45575.45246527778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45561.63293981482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45351.45969907408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44750</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44515</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44740</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44897</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>45660.41302083333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44958</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44552</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>45110.43325231481</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>45294</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>45294</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45034</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>45050.43728009259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>45050.44355324074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45054</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45577.38703703704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>45351.63769675926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44728</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45232.6234837963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45119.50736111111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45119.51900462963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45588.65774305556</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>45510</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45000</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45212.28642361111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45197.46625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44234</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>45762.41231481481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>45650.84388888889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>45629.84854166667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>45510.56855324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>45240.34545138889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>45240.40409722222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>45630</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>45462.70604166666</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44639</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>45728.63600694444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>45749.54398148148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>45015.62293981481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>45727.68160879629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45666.28506944444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44910.71126157408</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>45730.64863425926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45379.3350462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>45379.33895833333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44889.42746527777</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>44916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>45462.53766203704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>44354.87269675926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>45638.48190972222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>45356.63008101852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44804.61065972222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45798</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>45231.6437037037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>45798.6024537037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>45803.62123842593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>45801.81144675926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>45294.55914351852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45800.59861111111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44420.49086805555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>45406.64324074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>45803.67650462963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>45803.62251157407</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45225</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>44844.45476851852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>45271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>45805.41142361111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>45223</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>44980</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>45267.40234953703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45887.39331018519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>45180.63178240741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>45538.9009375</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>45749.54219907407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>45715.56043981481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>45888.40994212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>44897.45479166666</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45888.45876157407</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>45888.4877662037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>45888.41420138889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>45274</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>45321</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>45208.56241898148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>45812.63560185185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>45812</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44656</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>45812.51912037037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45812.51744212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>45812</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45190.60921296296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45126.68759259259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45582.46026620371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45758.58627314815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45816.7725</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45817.635625</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45895.44659722222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45666.57021990741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>44581.41039351852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45816.77730324074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45119.55572916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45895.44291666667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45622.25892361111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45233</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45576</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45817.62829861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45735</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45818.35608796297</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45819.51068287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>45819.51217592593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44858.56605324074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>45562.38952546296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>45898.42802083334</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>45821.58231481481</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>45821.58418981481</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>45821.59480324074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>45316.24631944444</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>45316</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>45902.39866898148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>45727.60891203704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>45902.40304398148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>45294</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>45671.69181712963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>45472.91881944444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>45120</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>45120.93417824074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>45120</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>45637</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45258</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>45194</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45823.90710648148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45909.19603009259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45412.39409722222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45537.49616898148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45909.44909722222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>45525.36525462963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44987.49986111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17669,7 +17669,7 @@
         <v>45727.64140046296</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>45727.64462962963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17783,7 +17783,7 @@
         <v>45734.43109953704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>44630</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>45915.58019675926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17954,7 +17954,7 @@
         <v>44888</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45730.58797453704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45730.59189814814</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45741</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45720.42122685185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>44389</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45120</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>45120</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>44958</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>45723.46748842593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>45827</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45826.4077662037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>45715.84982638889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>45917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45917.89658564814</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44377.42493055556</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>45917.85200231482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>45917.86940972223</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>45350</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>45922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>45922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>45832.43942129629</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44993.76420138889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>45832.36346064815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>45922</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>45925.5033912037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>45832.434375</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>45097</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45832.71377314815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>45924.57015046296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>45629.84033564815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>45925.50118055556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>45058</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>45379.44914351852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>45264</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>45929.49510416666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>45730</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45929.49907407408</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>45723.50204861111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20311,7 +20311,7 @@
         <v>45931</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45931</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45931</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44467</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>45930.38498842593</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>45930.62087962963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>45930.84449074074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>45931</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45839</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45839</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45836.42394675926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44351</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45836.41789351852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45140</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45935.72084490741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45935.58040509259</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45935.5899074074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45841.50565972222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45611.4719212963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45938.48791666667</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45184</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>45582.50539351852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44547.38486111111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>45937.66361111111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>45104.70768518518</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>45211</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>45938.49927083333</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44630</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45803.61898148148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45841.9329050926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45197.56680555556</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45392.32388888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45914.90981481481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45841.92826388889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44644</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45940.74016203704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45671.63178240741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45842.45538194444</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45842.47792824074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45943</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45841.92988425926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>45937.66010416667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>45944.33063657407</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>45846.65206018519</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>45196</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44656.46391203703</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>45944</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45316</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>45316</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>45593.53931712963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>45946.64105324074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45202</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>45096</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>45947.63052083334</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>45947.63421296296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>45848.46100694445</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>45848.45915509259</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>45456.87540509259</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>45947.46091435185</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>45947.47458333334</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44914.61417824074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45599.53886574074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>45379.33655092592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>45855.29523148148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>45855.3478125</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44571.43929398148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>45855.34162037037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>45855.70284722222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>45240</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>45215.36408564815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>45547.33547453704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45860</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>45839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>45839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>45392.32304398148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>45952.66685185185</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45863.6363425926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45952.64878472222</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>45866.57512731481</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>45866</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>45343</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>45864.64525462963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>45547.33179398148</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>45867.59960648148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>45868.69075231482</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>45868.69543981482</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>45868.65326388889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>45868.6805787037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>45953.85310185186</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>45392.32523148148</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>45953.87792824074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44882</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>45776.489375</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>45577.37951388889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>45610.69145833333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>45873.40289351852</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>45870.70042824074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>45870.70177083334</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>45870</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>44964.60105324074</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
         <v>45567.66493055555</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>45646.49038194444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>45959.74376157407</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26331,7 +26331,7 @@
         <v>45612.44818287037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26388,7 +26388,7 @@
         <v>45205</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26445,7 +26445,7 @@
         <v>45675.38304398148</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26502,7 +26502,7 @@
         <v>45196</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45678</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45951</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45393.46065972222</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45961.57664351852</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>45301</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45877.46954861111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45960.31606481481</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>45960.70804398148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>45961.48994212963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45308</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45685.68934027778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45964.4425462963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45775</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45968.45446759259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44266</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>45968.44337962963</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45784.45983796296</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45646.48758101852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45053.91832175926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>44859</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45974</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45210.44561342592</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>44848</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45273.56533564815</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45979.47361111111</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45979.47140046296</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>44592</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         <v>45315.46555555556</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28237,7 +28237,7 @@
         <v>45981.54357638889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28294,7 +28294,7 @@
         <v>44896.43377314815</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>45511.4987962963</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45085.35982638889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>45985.62841435185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>45472.87659722222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45982</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>45982</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45982</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45985.49490740741</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45412.38614583333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45982</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>45357.68982638889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44742.39810185185</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44964</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>45985</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>45546.37292824074</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45103.55524305555</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45989.47251157407</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45453.46512731481</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45988.64767361111</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45224</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45762</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>46035.48997685185</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>45992.65892361111</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>45264.83583333333</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45608</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29811,7 +29811,7 @@
         <v>45608.65652777778</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>45629.79951388889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>45629.80734953703</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>45629.82334490741</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>45308</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>45119</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>45093</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>45176.60104166667</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>45603.57885416667</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>46036.47381944444</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>46036.47501157408</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>45845</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>46037.44241898148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>45294</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>45294</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>46037.42465277778</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>45817</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>45994.48487268519</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>45994.49568287037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>45308</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44958</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>46041.606875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>45770.4802662037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>45770.49056712963</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>45678.53453703703</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44941.67449074074</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>45268.47841435186</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>45329.88466435186</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>45996.37564814815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>45637</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44900</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>46042.58833333333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>46042.88488425926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>45629.81206018518</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45321</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>45321</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>46044.46568287037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>45120</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32002,7 +32002,7 @@
         <v>45217.54106481482</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         <v>45577.37418981481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>44704</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>45483.41152777777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>45483.41474537037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44897</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44652</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>45546.36957175926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>46008.48265046296</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>46008.39219907407</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>45678</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>45204.37236111111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32691,7 +32691,7 @@
         <v>45772.42921296296</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32748,7 +32748,7 @@
         <v>46008.70103009259</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         <v>45050.44099537037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44839</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32919,7 +32919,7 @@
         <v>45054</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32976,7 +32976,7 @@
         <v>45120</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>45569.58503472222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33090,7 +33090,7 @@
         <v>44959</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33147,7 +33147,7 @@
         <v>45162.51400462963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33204,7 +33204,7 @@
         <v>44964</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44639.43059027778</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>45210.50472222222</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>45715.56778935185</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>45294</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45688.77064814815</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45688.47015046296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>45212</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>45239</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>45538.42341435186</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>45713</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>45713.68238425926</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45604</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>45698.59190972222</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>45699.40152777778</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>45701.76197916667</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>45702</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>45700</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>45701.7716087963</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>45688.48753472222</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>45711.66600694445</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>45670</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>45699.41542824074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>45615</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44958</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>45148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>45015</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44546.44887731481</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>45205</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>46052</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>46059.30708333333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>45044.62524305555</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45582.51785879629</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>45348.60578703704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>45189</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>45771.49827546296</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>45593.24111111111</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>45548</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>45674.66657407407</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35442,7 +35442,7 @@
         <v>45756</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>45440.46910879629</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>45670.45423611111</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>44866</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>45058.47872685185</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>45321</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>45474.63335648148</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44866</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44879</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>45240.40667824074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>45240.42798611111</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>45113.25549768518</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>45126</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>45197.4696412037</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>45186.96988425926</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>45211</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>45477</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>45119</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44771</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36535,7 +36535,7 @@
         <v>45225.44538194445</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36592,7 +36592,7 @@
         <v>44875.70405092592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36649,7 +36649,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         <v>45631</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>45321</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
         <v>45231.64703703704</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>45120</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36939,7 +36939,7 @@
         <v>44995</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36996,7 +36996,7 @@
         <v>45289.42331018519</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         <v>45545.75199074074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37110,7 +37110,7 @@
         <v>45769.38744212963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37167,7 +37167,7 @@
         <v>45579.45614583333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         <v>45099</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37286,7 +37286,7 @@
         <v>45337</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37343,7 +37343,7 @@
         <v>45579.44858796296</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37400,7 +37400,7 @@
         <v>45392.32475694444</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37457,7 +37457,7 @@
         <v>45673.57069444445</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37514,7 +37514,7 @@
         <v>44564.85040509259</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>45062</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45062</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37685,7 +37685,7 @@
         <v>45611.5891550926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37742,7 +37742,7 @@
         <v>45670.44511574074</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37799,7 +37799,7 @@
         <v>44445.46506944444</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37856,7 +37856,7 @@
         <v>44266.38083333334</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37913,7 +37913,7 @@
         <v>44266.3884837963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37970,7 +37970,7 @@
         <v>45364.62685185186</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38027,7 +38027,7 @@
         <v>45693.54440972222</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38084,7 +38084,7 @@
         <v>45007</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38141,7 +38141,7 @@
         <v>44949</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38198,7 +38198,7 @@
         <v>45684.38349537037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>45670</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>45671.46813657408</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44577.44398148148</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>45472.88256944445</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>45098</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>45187</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>45636.46734953704</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>45119.72554398148</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>45119</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>45119.8443287037</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>45762</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>44916</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38949,7 +38949,7 @@
         <v>45120</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39006,7 +39006,7 @@
         <v>45120</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39063,7 +39063,7 @@
         <v>45632</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39120,7 +39120,7 @@
         <v>44236</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>45275</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44837.45231481481</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>45048.4243287037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>44546.4675462963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39405,7 +39405,7 @@
         <v>44746</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39462,7 +39462,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39519,7 +39519,7 @@
         <v>45516.44384259259</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>45176.47136574074</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>45216</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44454.33140046296</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44992.52275462963</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>45273.5790625</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         <v>45755</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>45119</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39980,7 +39980,7 @@
         <v>45421.43105324074</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40037,7 +40037,7 @@
         <v>44589</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40094,7 +40094,7 @@
         <v>45194</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40151,7 +40151,7 @@
         <v>45119.91186342593</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40208,7 +40208,7 @@
         <v>44748.42736111111</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40270,7 +40270,7 @@
         <v>45302.36549768518</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>45432</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45638.55909722222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>45216</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45321</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>44914.61763888889</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45168.94686342592</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45119.87762731482</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45741.44355324074</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40793,7 +40793,7 @@
         <v>45593.24738425926</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40850,7 +40850,7 @@
         <v>44448</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40907,7 +40907,7 @@
         <v>45582.48012731481</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40964,7 +40964,7 @@
         <v>45675.39164351852</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>45629.87395833333</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45453</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>45776.3533912037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>45783.47327546297</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         <v>45782.47429398148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>45783.47040509259</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>45475.4787037037</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>45587.43356481481</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>45209.67533564815</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>45721.90905092593</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41591,7 +41591,7 @@
         <v>45784</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41648,7 +41648,7 @@
         <v>45785.67664351852</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41705,7 +41705,7 @@
         <v>45596.54247685185</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41762,7 +41762,7 @@
         <v>45789.58822916666</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41819,7 +41819,7 @@
         <v>45789.59091435185</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41876,7 +41876,7 @@
         <v>45142</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45726.63133101852</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45792.48877314815</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45671.69804398148</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45119.33660879629</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45471</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44501</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45950.57366898148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45526</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44314</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>45604</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44817.71167824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45838.50899305556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45204.51549768518</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45281</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>46042</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45836</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44958</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>45393.45601851852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45153</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>45824.44601851852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45846.45840277777</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>45943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45264</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44750.46633101852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45478.48630787037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>45702.51854166666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44748.4893287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>45321</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>45260</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45686.32912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>45153</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45629.88878472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>45783.57771990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45793.45925925926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>45793.45805555556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44448.37072916667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44512</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44656.34143518518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44448.39219907407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44631.6496875</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44280.59298611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44293.36452546297</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44355.41885416667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44617.45087962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44683</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>44544.59994212963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44355.64831018518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>44439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44488</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44313</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44721</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44351.26809027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44691</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44342.40263888889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44817</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44817</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44538.65876157407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44462.72489583334</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44825.57486111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44837</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44586</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44678.86274305556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44873</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44854</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44538.48643518519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44511.53631944444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44285.64561342593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44886.31664351852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44887.43643518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44502.54430555556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44447</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>44491</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44292.56182870371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44463</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>44523.31064814814</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>44350</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>44447.6977662037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>44511.74078703704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>44447.71224537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>44330.35582175926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>44306.27186342593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44286</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>44342</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>44605.77613425926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>44845</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>44845.48042824074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>44845</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>44325</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44624</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44886</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44298</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44463</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44769</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44285.4638425926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44886.33082175926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44323</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44753</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44673.38596064815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44873</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44544.39546296297</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44319</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44393</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44550</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44882.34469907408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44529.59217592593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44334</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44505.4665625</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44678</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44726</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>45321</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>45268.4834375</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>45673.56837962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>45351.45969907408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>45575.45246527778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44740</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>45119</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>45678.54986111111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>45561.63293981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>45660.41302083333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44897</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45110.43325231481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44958</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44489.4964699074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44489.54841435186</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44552</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>45050.43728009259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>45050.44355324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>45294</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>45294</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44750</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44515</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>45034</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45351.63769675926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44728</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>45577.38703703704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45232.6234837963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45119.50736111111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>45119.51900462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>45588.65774305556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45510</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45212.28642361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45197.46625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45629.84854166667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45762.41231481481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45650.84388888889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45240.34545138889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>45240.40409722222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>45630</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44639</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>45510.56855324074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>45749.54398148148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>45015.62293981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>45728.63600694444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>45462.70604166666</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>45727.68160879629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45666.28506944444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>45730.64863425926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44889.42746527777</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44910.71126157408</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>44916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>45356.63008101852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>45379.3350462963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>45379.33895833333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>44354.87269675926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45638.48190972222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45462.53766203704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>44804.61065972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>45231.6437037037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>45294.55914351852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>44420.49086805555</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>45406.64324074074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45225</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45271</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45223</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45538.9009375</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>44980</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44897.45479166666</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45180.63178240741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45208.56241898148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>45190.60921296296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>45126.68759259259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>45817.62829861111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45758.58627314815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>45735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45818.35608796297</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45819.51068287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>45321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>45666.57021990741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>44581.41039351852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>45119.55572916667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45233</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>45576</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>45819.51217592593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44844.45476851852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>45821.58231481481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>45821.58418981481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>45821.59480324074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45267.40234953703</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>45887.39331018519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44858.56605324074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>45472.91881944444</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>45562.38952546296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>45749.54219907407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>45823.90710648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>45715.56043981481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>45316.24631944444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>45316</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>45888.40994212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>45888.45876157407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>45888.4877662037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>45888.41420138889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>45727.60891203704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45671.69181712963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45120</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45120.93417824074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45120</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45727.64140046296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45727.64462962963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45637</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44949</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45258</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45734.43109953704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>45194</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>45730.58797453704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>45730.59189814814</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>45720.42122685185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>45723.46748842593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>45827</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45826.4077662037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45715.84982638889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>45895.44659722222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>45412.39409722222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45895.44291666667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>45537.49616898148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>45622.25892361111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>45525.36525462963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>45832.43942129629</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>45832.36346064815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44630</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>45832.434375</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>45832.71377314815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44888</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>44389</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>44958</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>45898.42802083334</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>44377.42493055556</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45902.39866898148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45902.40304398148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45839</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45350</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45836.42394675926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>44993.76420138889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45836.41789351852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45909.19603009259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>45097</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>45841.50565972222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44949</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>45909.44909722222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         <v>45629.84033564815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>44987.49986111111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18182,7 +18182,7 @@
         <v>45058</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18239,7 +18239,7 @@
         <v>45841.9329050926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18296,7 +18296,7 @@
         <v>45392.32388888889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18353,7 +18353,7 @@
         <v>45379.44914351852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18410,7 +18410,7 @@
         <v>45841.92826388889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>45264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>45842.45538194444</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>45842.47792824074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>45841.92988425926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>45730</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>45915.58019675926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>45846.65206018519</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>45723.50204861111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>45848.46100694445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>45848.45915509259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>45155</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>45917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>45917.89658564814</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>45855.29523148148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45855.3478125</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>45855.34162037037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>45855.70284722222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>45917.85200231482</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>45917.86940972223</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>45922</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>45922</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45839</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45922</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>45392.32304398148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45863.6363425926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45925.5033912037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>45611.4719212963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>45924.57015046296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>45866.57512731481</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45866</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45864.64525462963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>45867.59960648148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45925.50118055556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45184</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45510</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45582.50539351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45868.69075231482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44547.38486111111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>45868.69543981482</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>45868.65326388889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>45868.6805787037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>45392.32523148148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44882</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>45104.70768518518</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>45211</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>45929.49510416666</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>45776.489375</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44630</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45929.49907407408</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45610.69145833333</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45873.40289351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45197.56680555556</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45870.70042824074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45870.70177083334</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45870</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45931</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45931</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44644</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45931</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45567.66493055555</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45612.44818287037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45671.63178240741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45930.38498842593</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45930.62087962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45930.84449074074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45931</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>45196</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44656.46391203703</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>45678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45316</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45593.53931712963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45877.46954861111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45202</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45456.87540509259</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44914.61417824074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45599.53886574074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45379.33655092592</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>45140</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>45935.72084490741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44571.43929398148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>45935.58040509259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>45935.5899074074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>45240</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>45215.36408564815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>45775</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>45547.33547453704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>45938.48791666667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>45784.45983796296</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>45646.48758101852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>45343</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>45937.66361111111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45547.33179398148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>45938.49927083333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         <v>45803.61898148148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>45914.90981481481</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>45210.44561342592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24336,7 +24336,7 @@
         <v>45577.37951388889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
         <v>45940.74016203704</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>45943</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45937.66010416667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45944.33063657407</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>44964.60105324074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45646.49038194444</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>45205</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45946.64105324074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>45675.38304398148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45947.63052083334</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>45947.63421296296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         <v>45196</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>45947.46091435185</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>45947.47458333334</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>45393.46065972222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>45301</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>45952.66685185185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>45308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>45685.68934027778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45952.64878472222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45953.85310185186</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45953.87792824074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44266</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45959.74376157407</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45958</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45951</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>45961.57664351852</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>45053.91832175926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44859</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>45960.31606481481</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>45960.70804398148</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>45961.48994212963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44848</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>45273.56533564815</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>45964.4425462963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44592</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>45315.46555555556</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44896.43377314815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>45511.4987962963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>45968.45446759259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>45968.44337962963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>45085.35982638889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>45472.87659722222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>45412.38614583333</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>45357.68982638889</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>45974</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44742.39810185185</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>44964</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>45979.47361111111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>45979.47140046296</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45981.54357638889</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45546.37292824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>45103.55524305555</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>45985.62841435185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45453.46512731481</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45224</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45762</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45982</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45982</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>45982</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45985.49490740741</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>45982</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45264.83583333333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45608</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45608.65652777778</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45629.79951388889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45629.80734953703</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>45629.82334490741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45308</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45985</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45989.47251157407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>45988.64767361111</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>45093</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>45176.60104166667</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>45603.57885416667</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>46035.48997685185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>45294</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>45294</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>45992.65892361111</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>44958</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45770.4802662037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>45770.49056712963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>45678.53453703703</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44941.67449074074</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>46036.47381944444</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>46036.47501157408</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>45845</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>46037.44241898148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>46037.42465277778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>45268.47841435186</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>45817</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>45329.88466435186</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45994.48487268519</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29935,7 +29935,7 @@
         <v>45994.49568287037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29992,7 +29992,7 @@
         <v>45637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30049,7 +30049,7 @@
         <v>46041.606875</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30106,7 +30106,7 @@
         <v>44900</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45996.37564814815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30220,7 +30220,7 @@
         <v>46042.58833333333</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30277,7 +30277,7 @@
         <v>46042.88488425926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30334,7 +30334,7 @@
         <v>45629.81206018518</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45321</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45321</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>45120</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>45217.54106481482</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>45577.37418981481</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>46044.46568287037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>45483.41152777777</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45483.41474537037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>44897</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30971,7 +30971,7 @@
         <v>44652</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         <v>45546.36957175926</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>45678</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31147,7 +31147,7 @@
         <v>45204.37236111111</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45772.42921296296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>46008.48265046296</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>46008.39219907407</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31375,7 +31375,7 @@
         <v>45050.44099537037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44839</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>46008.70103009259</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45120</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>45569.58503472222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44959</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>45162.51400462963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44964</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44639.43059027778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>45210.50472222222</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32002,7 +32002,7 @@
         <v>45212</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         <v>45239</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>45538.42341435186</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>45688.48753472222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>45715.56778935185</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>45688.77064814815</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>45688.47015046296</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44958</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>45148</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>45713</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32577,7 +32577,7 @@
         <v>45713.68238425926</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>45604</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32691,7 +32691,7 @@
         <v>45698.59190972222</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32748,7 +32748,7 @@
         <v>45015</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         <v>44546.44887731481</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>45205</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32919,7 +32919,7 @@
         <v>45699.40152777778</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32976,7 +32976,7 @@
         <v>45701.76197916667</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>45702</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33090,7 +33090,7 @@
         <v>45700</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33147,7 +33147,7 @@
         <v>45701.7716087963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33204,7 +33204,7 @@
         <v>45711.66600694445</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>45670</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>45699.41542824074</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45615</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>45044.62524305555</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>45582.51785879629</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>46059.30708333333</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33613,7 +33613,7 @@
         <v>45348.60578703704</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33670,7 +33670,7 @@
         <v>45189</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33727,7 +33727,7 @@
         <v>45771.49827546296</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>45593.24111111111</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45548</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45674.66657407407</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34012,7 +34012,7 @@
         <v>45440.46910879629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34069,7 +34069,7 @@
         <v>45670.45423611111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34126,7 +34126,7 @@
         <v>44866</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>45058.47872685185</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>45321</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>45474.63335648148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44866</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44879</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>46052</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>45240.40667824074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>45240.42798611111</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>45113.25549768518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>45126</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>45197.4696412037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>45186.96988425926</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>45211</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>45294</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>45477</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45119</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44771</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35162,7 +35162,7 @@
         <v>45225.44538194445</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35219,7 +35219,7 @@
         <v>44875.70405092592</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35276,7 +35276,7 @@
         <v>45126</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35333,7 +35333,7 @@
         <v>45631</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35390,7 +35390,7 @@
         <v>45321</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35452,7 +35452,7 @@
         <v>45231.64703703704</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35509,7 +35509,7 @@
         <v>45120</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35566,7 +35566,7 @@
         <v>44995</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>45289.42331018519</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>45545.75199074074</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>45769.38744212963</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>45579.45614583333</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>45099</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35913,7 +35913,7 @@
         <v>45337</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35970,7 +35970,7 @@
         <v>45579.44858796296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36027,7 +36027,7 @@
         <v>45392.32475694444</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>45673.57069444445</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36141,7 +36141,7 @@
         <v>44564.85040509259</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36198,7 +36198,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>45062</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>45611.5891550926</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>45670.44511574074</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36426,7 +36426,7 @@
         <v>44445.46506944444</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36483,7 +36483,7 @@
         <v>44266.38083333334</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44266.3884837963</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36597,7 +36597,7 @@
         <v>45364.62685185186</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36654,7 +36654,7 @@
         <v>45693.54440972222</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36711,7 +36711,7 @@
         <v>45007</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36768,7 +36768,7 @@
         <v>44949</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
         <v>45684.38349537037</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>45670</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>45671.46813657408</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44577.44398148148</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>45472.88256944445</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37172,7 +37172,7 @@
         <v>45187</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37229,7 +37229,7 @@
         <v>45636.46734953704</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37286,7 +37286,7 @@
         <v>45119.72554398148</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37343,7 +37343,7 @@
         <v>45119</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37400,7 +37400,7 @@
         <v>45119.8443287037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37457,7 +37457,7 @@
         <v>45762</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37519,7 +37519,7 @@
         <v>44916</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37576,7 +37576,7 @@
         <v>45120</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>45120</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45632</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45275</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>44837.45231481481</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45048.4243287037</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>44546.4675462963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37975,7 +37975,7 @@
         <v>44746</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38032,7 +38032,7 @@
         <v>45119</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38089,7 +38089,7 @@
         <v>45516.44384259259</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         <v>45176.47136574074</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>45216</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38260,7 +38260,7 @@
         <v>44454.33140046296</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44992.52275462963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>45273.5790625</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>45755</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38493,7 +38493,7 @@
         <v>45119</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>45421.43105324074</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>44589</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>45194</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>45119.91186342593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>44748.42736111111</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45302.36549768518</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45432</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38959,7 +38959,7 @@
         <v>45638.55909722222</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>45216</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>45321</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44914.61763888889</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>45168.94686342592</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>45119.87762731482</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39306,7 +39306,7 @@
         <v>45741.44355324074</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>45593.24738425926</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>44448</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39477,7 +39477,7 @@
         <v>45582.48012731481</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39534,7 +39534,7 @@
         <v>45675.39164351852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39591,7 +39591,7 @@
         <v>45629.87395833333</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>45453</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>45776.3533912037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>45783.47327546297</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>45782.47429398148</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>45783.47040509259</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         <v>45475.4787037037</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39990,7 +39990,7 @@
         <v>45587.43356481481</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40047,7 +40047,7 @@
         <v>45209.67533564815</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40104,7 +40104,7 @@
         <v>45721.90905092593</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40161,7 +40161,7 @@
         <v>45784</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>45785.67664351852</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>45596.54247685185</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>45789.58822916666</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45789.59091435185</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>45142</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45726.63133101852</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40560,7 +40560,7 @@
         <v>45792.48877314815</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40617,7 +40617,7 @@
         <v>45798</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45798.6024537037</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45803.62123842593</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40793,7 +40793,7 @@
         <v>45801.81144675926</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40850,7 +40850,7 @@
         <v>45800.59861111111</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40907,7 +40907,7 @@
         <v>45803.67650462963</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40964,7 +40964,7 @@
         <v>45803.62251157407</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>45805.41142361111</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45274</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>45812.63560185185</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>45812</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         <v>44656</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>45812.51912037037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>45812.51744212963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>45812</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>45582.46026620371</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>45816.7725</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41591,7 +41591,7 @@
         <v>45817.635625</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41648,7 +41648,7 @@
         <v>45816.77730324074</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45671.69804398148</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45119.33660879629</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45943</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45471</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44501</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45950.57366898148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45526</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44314</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>45604</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44817.71167824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45838.50899305556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45204.51549768518</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45281</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>46042</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45836</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44958</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>45393.45601851852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45153</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>45824.44601851852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45846.45840277777</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>45943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45264</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44750.46633101852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45478.48630787037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>45702.51854166666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44748.4893287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>45321</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>45260</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45686.32912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>45153</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45629.88878472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>45783.57771990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45793.45925925926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>45793.45805555556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44448.37072916667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44512</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44656.34143518518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44468</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44448.39219907407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44631.6496875</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44280.59298611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44293.36452546297</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44355.41885416667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44617.45087962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44683</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>44544.59994212963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44355.64831018518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>44439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44488</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44313</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44721</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44351.26809027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44691</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44342.40263888889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44817</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44817</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44538.65876157407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44462.72489583334</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44825.57486111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44837</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44586</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44678.86274305556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44873</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44854</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44538.48643518519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44511.53631944444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44285.64561342593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44886.31664351852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44887.43643518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44502.54430555556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44447</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>44491</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44292.56182870371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44463</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>44523.31064814814</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>44350</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>44447.6977662037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>44511.74078703704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>44447.71224537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>44330.35582175926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>44306.27186342593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44286</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>44342</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>44605.77613425926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>44845</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>44845.48042824074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>44845</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>44325</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>44624</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>44886</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44298</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44463</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44769</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44285.4638425926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44886.33082175926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44323</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44753</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44673.38596064815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44873</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44544.39546296297</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44565</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44319</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44393</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44550</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44882.34469907408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44529.59217592593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44334</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44505.4665625</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44678</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44726</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>45321</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>45268.4834375</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>45673.56837962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>45351.45969907408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>45575.45246527778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44740</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>45119</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>45678.54986111111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>45561.63293981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>45660.41302083333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44897</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45110.43325231481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44958</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44489.4964699074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44489.54841435186</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44552</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>45050.43728009259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>45050.44355324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>45294</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>45294</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44750</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44515</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>45034</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45351.63769675926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44728</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>45577.38703703704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45232.6234837963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45119.50736111111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>45119.51900462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>45588.65774305556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45510</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45212.28642361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45197.46625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45629.84854166667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45762.41231481481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45650.84388888889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45240.34545138889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>45240.40409722222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>45630</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44639</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>45510.56855324074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>45749.54398148148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>45015.62293981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>45728.63600694444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>45462.70604166666</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>45727.68160879629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45666.28506944444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>45730.64863425926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44889.42746527777</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44910.71126157408</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>44916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>45356.63008101852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>45379.3350462963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>45379.33895833333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>44354.87269675926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45638.48190972222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45462.53766203704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>44804.61065972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>45231.6437037037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>45294.55914351852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>44420.49086805555</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>45406.64324074074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45225</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45271</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45223</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45538.9009375</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>44980</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44897.45479166666</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45180.63178240741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45208.56241898148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>45190.60921296296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>45126.68759259259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>45817.62829861111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45758.58627314815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>45735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45818.35608796297</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45819.51068287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>45321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>45666.57021990741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>44581.41039351852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>45119.55572916667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45233</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>45576</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>45819.51217592593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44844.45476851852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>45821.58231481481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>45821.58418981481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>45821.59480324074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45267.40234953703</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>45887.39331018519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44858.56605324074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>45472.91881944444</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>45562.38952546296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>45749.54219907407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>45823.90710648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>45715.56043981481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>45316.24631944444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>45316</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>45888.40994212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>45888.45876157407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>45888.4877662037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>45888.41420138889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>45727.60891203704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45671.69181712963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45120</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45120.93417824074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45120</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45727.64140046296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45727.64462962963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45637</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44949</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45258</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45734.43109953704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>45194</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>45730.58797453704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>45730.59189814814</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>45720.42122685185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>45723.46748842593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>45827</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45826.4077662037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45715.84982638889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>45895.44659722222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>45412.39409722222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45895.44291666667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>45537.49616898148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>45622.25892361111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>45525.36525462963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>45832.43942129629</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>45832.36346064815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44630</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>45832.434375</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>45832.71377314815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44888</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>44389</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>44958</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>45898.42802083334</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>44377.42493055556</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45902.39866898148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45902.40304398148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45839</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45350</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45836.42394675926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>44993.76420138889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45836.41789351852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45909.19603009259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>45097</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>45841.50565972222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44949</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>45909.44909722222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         <v>45629.84033564815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>44987.49986111111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18182,7 +18182,7 @@
         <v>45058</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18239,7 +18239,7 @@
         <v>45841.9329050926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18296,7 +18296,7 @@
         <v>45392.32388888889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18353,7 +18353,7 @@
         <v>45379.44914351852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18410,7 +18410,7 @@
         <v>45841.92826388889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>45264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>45842.45538194444</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>45842.47792824074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>45841.92988425926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>45730</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>45915.58019675926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>45846.65206018519</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>45723.50204861111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>45848.46100694445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>45848.45915509259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>45155</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>45917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>45917.89658564814</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>45855.29523148148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45855.3478125</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>45855.34162037037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>45855.70284722222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>45917.85200231482</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>45917.86940972223</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>45922</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>45922</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45839</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45922</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>45392.32304398148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>45863.6363425926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>45925.5033912037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>45611.4719212963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>45924.57015046296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>45866.57512731481</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45866</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45864.64525462963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>45867.59960648148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45925.50118055556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45184</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45510</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45582.50539351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45868.69075231482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44547.38486111111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>45868.69543981482</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>45868.65326388889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>45868.6805787037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>45392.32523148148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44882</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>45104.70768518518</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>45211</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>45929.49510416666</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>45776.489375</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44630</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45929.49907407408</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45610.69145833333</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45873.40289351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45197.56680555556</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45870.70042824074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45870.70177083334</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45870</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45931</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45931</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44644</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45931</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45567.66493055555</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45612.44818287037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45671.63178240741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45930.38498842593</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45930.62087962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45930.84449074074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45931</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>45196</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44656.46391203703</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>45678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45316</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45316</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45593.53931712963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45877.46954861111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45202</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45456.87540509259</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44914.61417824074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45599.53886574074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45379.33655092592</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>45140</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>45935.72084490741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44571.43929398148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>45935.58040509259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>45935.5899074074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>45240</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>45215.36408564815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>45775</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>45547.33547453704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>45938.48791666667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>45784.45983796296</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>45646.48758101852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>45343</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>45937.66361111111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45547.33179398148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>45938.49927083333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         <v>45803.61898148148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>45914.90981481481</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>45210.44561342592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24336,7 +24336,7 @@
         <v>45577.37951388889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
         <v>45940.74016203704</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>45943</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45937.66010416667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45944.33063657407</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>44964.60105324074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45646.49038194444</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>45205</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45946.64105324074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>45675.38304398148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45947.63052083334</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>45947.63421296296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         <v>45196</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>45947.46091435185</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>45947.47458333334</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>45393.46065972222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>45301</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>45952.66685185185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>45308</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>45685.68934027778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45952.64878472222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45953.85310185186</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45953.87792824074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44266</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45959.74376157407</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45958</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45951</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>45961.57664351852</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>45053.91832175926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44859</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>45960.31606481481</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>45960.70804398148</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>45961.48994212963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44848</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>45273.56533564815</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>45964.4425462963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44592</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>45315.46555555556</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44896.43377314815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>45511.4987962963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>45968.45446759259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>45968.44337962963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>45085.35982638889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>45472.87659722222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>45412.38614583333</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>45357.68982638889</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>45974</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44742.39810185185</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>44964</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>45979.47361111111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>45979.47140046296</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45981.54357638889</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45546.37292824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>45103.55524305555</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>45985.62841435185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45453.46512731481</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45224</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45762</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45982</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45982</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>45982</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45985.49490740741</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>45982</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45264.83583333333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45608</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45608.65652777778</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45629.79951388889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45629.80734953703</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>45629.82334490741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45308</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45985</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45989.47251157407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>45988.64767361111</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>45093</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>45176.60104166667</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>45603.57885416667</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>46035.48997685185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>45294</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>45294</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>45992.65892361111</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>44958</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45770.4802662037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>45770.49056712963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>45678.53453703703</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44941.67449074074</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>46036.47381944444</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>46036.47501157408</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>45845</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>46037.44241898148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>46037.42465277778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>45268.47841435186</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>45817</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>45329.88466435186</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45994.48487268519</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29935,7 +29935,7 @@
         <v>45994.49568287037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29992,7 +29992,7 @@
         <v>45637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30049,7 +30049,7 @@
         <v>46041.606875</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30106,7 +30106,7 @@
         <v>44900</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45996.37564814815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30220,7 +30220,7 @@
         <v>46042.58833333333</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30277,7 +30277,7 @@
         <v>46042.88488425926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30334,7 +30334,7 @@
         <v>45629.81206018518</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45321</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45321</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>45120</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>45217.54106481482</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>45577.37418981481</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>44704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>46044.46568287037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>45483.41152777777</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45483.41474537037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>44897</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30971,7 +30971,7 @@
         <v>44652</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         <v>45546.36957175926</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>45678</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31147,7 +31147,7 @@
         <v>45204.37236111111</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45772.42921296296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>46008.48265046296</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>46008.39219907407</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31375,7 +31375,7 @@
         <v>45050.44099537037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44839</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45054</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>46008.70103009259</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45120</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>45569.58503472222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44959</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>45162.51400462963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44964</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44639.43059027778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>45210.50472222222</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32002,7 +32002,7 @@
         <v>45212</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         <v>45239</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>45538.42341435186</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>45688.48753472222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>45715.56778935185</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>45688.77064814815</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>45688.47015046296</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44958</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>45148</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>45713</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32577,7 +32577,7 @@
         <v>45713.68238425926</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>45604</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32691,7 +32691,7 @@
         <v>45698.59190972222</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32748,7 +32748,7 @@
         <v>45015</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         <v>44546.44887731481</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>45205</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32919,7 +32919,7 @@
         <v>45699.40152777778</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32976,7 +32976,7 @@
         <v>45701.76197916667</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>45702</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33090,7 +33090,7 @@
         <v>45700</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33147,7 +33147,7 @@
         <v>45701.7716087963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33204,7 +33204,7 @@
         <v>45711.66600694445</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>45670</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>45699.41542824074</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45615</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>45044.62524305555</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>45582.51785879629</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>46059.30708333333</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33613,7 +33613,7 @@
         <v>45348.60578703704</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33670,7 +33670,7 @@
         <v>45189</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33727,7 +33727,7 @@
         <v>45771.49827546296</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>45593.24111111111</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>45548</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45674.66657407407</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34012,7 +34012,7 @@
         <v>45440.46910879629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34069,7 +34069,7 @@
         <v>45670.45423611111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34126,7 +34126,7 @@
         <v>44866</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>45058.47872685185</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>45321</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>45474.63335648148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44866</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44879</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>46052</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>45240.40667824074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>45240.42798611111</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>45113.25549768518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>45126</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>45197.4696412037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>45186.96988425926</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>45211</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>45294</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>45477</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45119</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44771</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35162,7 +35162,7 @@
         <v>45225.44538194445</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35219,7 +35219,7 @@
         <v>44875.70405092592</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35276,7 +35276,7 @@
         <v>45126</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35333,7 +35333,7 @@
         <v>45631</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35390,7 +35390,7 @@
         <v>45321</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35452,7 +35452,7 @@
         <v>45231.64703703704</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35509,7 +35509,7 @@
         <v>45120</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35566,7 +35566,7 @@
         <v>44995</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>45289.42331018519</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>45545.75199074074</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>45769.38744212963</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>45579.45614583333</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>45099</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35913,7 +35913,7 @@
         <v>45337</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35970,7 +35970,7 @@
         <v>45579.44858796296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36027,7 +36027,7 @@
         <v>45392.32475694444</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>45673.57069444445</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36141,7 +36141,7 @@
         <v>44564.85040509259</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36198,7 +36198,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>45062</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>45611.5891550926</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>45670.44511574074</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36426,7 +36426,7 @@
         <v>44445.46506944444</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36483,7 +36483,7 @@
         <v>44266.38083333334</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44266.3884837963</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36597,7 +36597,7 @@
         <v>45364.62685185186</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36654,7 +36654,7 @@
         <v>45693.54440972222</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36711,7 +36711,7 @@
         <v>45007</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36768,7 +36768,7 @@
         <v>44949</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
         <v>45684.38349537037</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>45670</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>45671.46813657408</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44577.44398148148</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>45472.88256944445</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37172,7 +37172,7 @@
         <v>45187</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37229,7 +37229,7 @@
         <v>45636.46734953704</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37286,7 +37286,7 @@
         <v>45119.72554398148</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37343,7 +37343,7 @@
         <v>45119</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37400,7 +37400,7 @@
         <v>45119.8443287037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37457,7 +37457,7 @@
         <v>45762</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37519,7 +37519,7 @@
         <v>44916</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37576,7 +37576,7 @@
         <v>45120</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>45120</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45632</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45275</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>44837.45231481481</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45048.4243287037</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>44546.4675462963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37975,7 +37975,7 @@
         <v>44746</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38032,7 +38032,7 @@
         <v>45119</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38089,7 +38089,7 @@
         <v>45516.44384259259</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         <v>45176.47136574074</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>45216</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38260,7 +38260,7 @@
         <v>44454.33140046296</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44992.52275462963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>45273.5790625</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>45755</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38493,7 +38493,7 @@
         <v>45119</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>45421.43105324074</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>44589</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>45194</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>45119.91186342593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>44748.42736111111</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45302.36549768518</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45432</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38959,7 +38959,7 @@
         <v>45638.55909722222</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>45216</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>45321</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44914.61763888889</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>45168.94686342592</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>45119.87762731482</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39306,7 +39306,7 @@
         <v>45741.44355324074</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>45593.24738425926</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>44448</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39477,7 +39477,7 @@
         <v>45582.48012731481</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39534,7 +39534,7 @@
         <v>45675.39164351852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39591,7 +39591,7 @@
         <v>45629.87395833333</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>45453</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>45776.3533912037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>45783.47327546297</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>45782.47429398148</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>45783.47040509259</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         <v>45475.4787037037</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39990,7 +39990,7 @@
         <v>45587.43356481481</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40047,7 +40047,7 @@
         <v>45209.67533564815</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40104,7 +40104,7 @@
         <v>45721.90905092593</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40161,7 +40161,7 @@
         <v>45784</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>45785.67664351852</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>45596.54247685185</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>45789.58822916666</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45789.59091435185</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>45142</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45726.63133101852</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40560,7 +40560,7 @@
         <v>45792.48877314815</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40617,7 +40617,7 @@
         <v>45798</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45798.6024537037</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45803.62123842593</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40793,7 +40793,7 @@
         <v>45801.81144675926</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40850,7 +40850,7 @@
         <v>45800.59861111111</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40907,7 +40907,7 @@
         <v>45803.67650462963</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40964,7 +40964,7 @@
         <v>45803.62251157407</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>45805.41142361111</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45274</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>45812.63560185185</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>45812</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         <v>44656</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>45812.51912037037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>45812.51744212963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>45812</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>45582.46026620371</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>45816.7725</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41591,7 +41591,7 @@
         <v>45817.635625</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41648,7 +41648,7 @@
         <v>45816.77730324074</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45671.69804398148</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45119.33660879629</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45471</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45943</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44501</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45526</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>45950.57366898148</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44314</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>45604</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44817.71167824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45838.50899305556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>46042</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>46076.43472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45281</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45836</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>45204.51549768518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44958</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>45321</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>45824.44601851852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44748.4893287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44750.46633101852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>45846.45840277777</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45943</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>45153</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>45393.45601851852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45478.48630787037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>45153</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>45702.51854166666</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45264</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45260</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45686.32912037037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>45629.88878472222</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>45783.57771990741</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>45793.45925925926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45793.45805555556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>44448.39219907407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>44448.37072916667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44586</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>44512</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44656.34143518518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>44468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>44631.6496875</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>44280.59298611111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44293.36452546297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>44355.41885416667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>44617.45087962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44683</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44544.59994212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44355.64831018518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44488</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44313</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>44721</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44351.26809027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>44830</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44342.40263888889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>44817</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>44817</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>44538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44538.65876157407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44825.57486111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44462.72489583334</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44734</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44837</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44586</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44678.86274305556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44873</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44854</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44538.48643518519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44511.53631944444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44285.64561342593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44887.43643518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44886.31664351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44502.54430555556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44491</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44292.56182870371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44463</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>44523.31064814814</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>44350</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>44447.71224537037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>44447.6977662037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>44511.74078703704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44330.35582175926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44306.27186342593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44286</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44342</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44605.77613425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44845</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44845.48042824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44624</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44845</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44325</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44886</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44298</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>44463</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>44769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>44285.4638425926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>44886.33082175926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44323</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>44673.38596064815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44753</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44873</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44544.39546296297</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44565</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44319</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44550</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44882.34469907408</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44529.59217592593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44642</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44505.4665625</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44726</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>45194</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>45406.64324074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44879</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>45231.64703703704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>45755</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44916</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44958</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>45412.38614583333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45538.9009375</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>44445.46506944444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45050.44099537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>45379.44914351852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44837.45231481481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45474.63335648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45273.5790625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>44377.42493055556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45062</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45483.41152777777</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>45483.41474537037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44577.44398148148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>45546.36957175926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44964</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44630</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>45321</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>45453</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45803.62251157407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44858.56605324074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>45575.45246527778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45803.67650462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>45803.62123842593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44844.45476851852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>45805.41142361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44888</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>45210.44561342592</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>45216</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>45784.45983796296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>45608</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>45749.54219907407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45670</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>45887.39331018519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44639</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>45274</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>45646.48758101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>45888.45876157407</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44552</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>45888.40994212963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>45812.51912037037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>45812.51744212963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45888.4877662037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44656</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45715.56043981481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44964.60105324074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>45812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>45888.41420138889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44581.41039351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45812</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>45812.63560185185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>45104.70768518518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45817.62829861111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45817.635625</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>45577.38703703704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45688.48753472222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>45212.28642361111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>45582.46026620371</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44910.71126157408</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>45735</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>45816.77730324074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>45622.25892361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>45816.7725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>45818.35608796297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>45678.53453703703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>45819.51068287037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>45819.51217592593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44941.67449074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>45579.44858796296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>45472.91881944444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>45821.59480324074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44389</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>45823.90710648148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>45821.58231481481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>45821.58418981481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>45547.33547453704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>45826.4077662037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>45895.44291666667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>45895.44659722222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>45898.42802083334</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>45593.24738425926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>45720.42122685185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45727.64140046296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45723.46748842593</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45715.84982638889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45902.40304398148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45734.43109953704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45730.58797453704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45730.59189814814</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45582.51785879629</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44630</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45902.39866898148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45453.46512731481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45827</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45054</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45727.64462962963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45832.43942129629</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45832.36346064815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45225</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45832.434375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45723.50204861111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45832.71377314815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44748.42736111111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45577.37418981481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45187</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45836.41789351852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>45015.62293981481</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>45836.42394675926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>45909.44909722222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>45839</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>45343</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45456.87540509259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44746</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>45762.41231481481</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>45841.9329050926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>45841.92826388889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>45841.92988425926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>45308</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>45258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>45356.63008101852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>45841.50565972222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>45909.19603009259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>45603.57885416667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>45842.45538194444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>45842.47792824074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>45392.32388888889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44987.49986111111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>45846.65206018519</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>45393.46065972222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45058.47872685185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>45611.4719212963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>45674.66657407407</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>45637</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>45848.45915509259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>45058</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>45848.46100694445</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>45119.50736111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>45119.51900462963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45638.48190972222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44993.76420138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45915.58019675926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>45119</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>45119.8443287037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>45855.70284722222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>45103.55524305555</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>45855.34162037037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>45855.29523148148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>45855.3478125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>45860</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45392.32304398148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>45917.89658564814</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>45917.85200231482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>45917.86940972223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45866.57512731481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>45922</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45863.6363425926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>45864.64525462963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>45868.65326388889</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>45922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45629.79951388889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45629.80734953703</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45629.82334490741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45922</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>45119</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>45582.48012731481</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45924.57015046296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45867.59960648148</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45868.6805787037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45392.32523148148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45204.37236111111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45868.69543981482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45868.69075231482</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44351</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45120</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45925.50118055556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45870.70042824074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45870.70177083334</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45870</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44882</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45925.5033912037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45930.62087962963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45930.38498842593</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45612.44818287037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45610.69145833333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45929.49510416666</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45776.489375</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45873.40289351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45929.49907407408</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45931</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45567.66493055555</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>45477</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>45225.44538194445</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45930.84449074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45098</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45877.46954861111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45931</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         <v>45678</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>45931</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45510</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45931</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45775</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45176.60104166667</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45935.72084490741</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45728.63600694444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45671.63178240741</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45935.58040509259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45935.5899074074</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45176.47136574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45547.33179398148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45093</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45273.56533564815</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>45140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>45113.25549768518</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>45202</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>45937.66361111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>45938.48791666667</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44467</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45938.49927083333</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>45267.40234953703</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45197.4696412037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>45673.57069444445</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>45053.91832175926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         <v>45168.94686342592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>45940.74016203704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44571.43929398148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>45944</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>45944.33063657407</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>45210.50472222222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>45803.61898148148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45914.90981481481</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45943</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>45946.64105324074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>45599.53886574074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>45937.66010416667</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>45085.35982638889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>45538.42341435186</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45044.62524305555</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>45947.46091435185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44897.45479166666</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>45947.47458333334</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45947.63052083334</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>45947.63421296296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45646.49038194444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>45211</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>45730.64863425926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>45096</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44589</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45952.64878472222</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45638.55909722222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44896.43377314815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45216</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45110.43325231481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45952.66685185185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45771.49827546296</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44866</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45727.68160879629</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>45953.85310185186</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24816,7 +24816,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>45770.4802662037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>45770.49056712963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>45958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>45953.87792824074</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44489.54841435186</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>45321</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>45960.31606481481</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>45959.74376157407</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>45294</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44546.44887731481</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44448</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>45960.70804398148</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>45379.3350462963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>45379.33895833333</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45961.57664351852</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45120</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45120.93417824074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>45120</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>45964.4425462963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45961.48994212963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>45337</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>45120</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>45329.88466435186</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>45271</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>45772.42921296296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>45462.53766203704</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>45968.45446759259</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>45968.44337962963</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>45062</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>45545.75199074074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>45294</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44889.42746527777</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45348.60578703704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>45974</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45120</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>45316</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44546.4675462963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45637</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45979.47140046296</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>45593.24111111111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45979.47361111111</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45162.51400462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45611.5891550926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45982</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45982</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45981.54357638889</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45392.32475694444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45982</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>45982</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>45562.38952546296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44609</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>45670.45423611111</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>45985.62841435185</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28115,7 +28115,7 @@
         <v>45985.49490740741</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45155</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>44515</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>45988.64767361111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>45629.84033564815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45217.54106481482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45630</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>45126</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>45992.65892361111</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45196</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>44547.38486111111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>45989.47251157407</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28861,7 +28861,7 @@
         <v>45357.68982638889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28918,7 +28918,7 @@
         <v>45054</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>45985</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>45631</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29089,7 +29089,7 @@
         <v>45671.46813657408</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29146,7 +29146,7 @@
         <v>44644</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>45994.48487268519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>45994.49568287037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29317,7 +29317,7 @@
         <v>45351.45969907408</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>45472.88256944445</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29431,7 +29431,7 @@
         <v>45579.45614583333</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29488,7 +29488,7 @@
         <v>45996.37564814815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45845</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45119.55572916667</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45432</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>44639.43059027778</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>45817</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45316.24631944444</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45321</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>45196</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44564.85040509259</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45190.60921296296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>46041.606875</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45671.69181712963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45351.63769675926</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45569.58503472222</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45608.65652777778</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45636.46734953704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>46044.46568287037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>46042.88488425926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>45231.6437037037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45205</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45675.39164351852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>45212</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>45629.81206018518</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>46008.39219907407</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>45099</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>45126.68759259259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>45119.91186342593</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31151,7 +31151,7 @@
         <v>45119</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         <v>46008.48265046296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>46008.70103009259</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31322,7 +31322,7 @@
         <v>45685.68934027778</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>45660.41302083333</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>45516.44384259259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>45741.44355324074</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>44266.38083333334</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>44266.3884837963</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>45264</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>45604</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>45670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31840,7 +31840,7 @@
         <v>45688.47015046296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31897,7 +31897,7 @@
         <v>45698.59190972222</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31954,7 +31954,7 @@
         <v>45120</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>45240.34545138889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>45711.66600694445</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>45615</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>45701.7716087963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>45713</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         <v>45713.68238425926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         <v>45302.36549768518</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>44704</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>45715.56778935185</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>45688.77064814815</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>45699.40152777778</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>45749.54398148148</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>45239</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32762,7 +32762,7 @@
         <v>45699.41542824074</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32819,7 +32819,7 @@
         <v>45700</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45701.76197916667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32933,7 +32933,7 @@
         <v>45702</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32990,7 +32990,7 @@
         <v>45315.46555555556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>45186.96988425926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33104,7 +33104,7 @@
         <v>45233</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>45758.58627314815</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>45268.47841435186</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>46059.30708333333</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>45756</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>45289.42331018519</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>44804.61065972222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>45321</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>44839</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>45727.60891203704</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>45321</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>45316</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45240.40667824074</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>45240.42798611111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>44916</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>44750</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>45294.55914351852</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34150,7 +34150,7 @@
         <v>44897</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>45321</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45240</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45294</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45189</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45548</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45588.65774305556</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45693.54440972222</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45197.46625</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45224</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45582.50539351852</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45197.56680555556</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45223</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45180.63178240741</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>44964</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45215.36408564815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>46076.48876157407</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>44875.70405092592</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>46076.49167824074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45561.63293981482</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45462.70604166666</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>44914.61763888889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>46052</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>46035.48997685185</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45769.38744212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>46036.47381944444</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>46036.47501157408</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>44900</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>46042.58833333333</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>44489.4964699074</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45294</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45015</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>44995</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>44420.49086805555</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45007</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>46037.42465277778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36207,7 +36207,7 @@
         <v>44592</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>45048.4243287037</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>45301</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44771</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>45546.37292824074</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>45593.53931712963</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>46037.44241898148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>45308</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>44656.46391203703</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45308</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>45350</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>45379.33655092592</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>45670.44511574074</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36968,7 +36968,7 @@
         <v>45511.4987962963</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37030,7 +37030,7 @@
         <v>44354.87269675926</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37087,7 +37087,7 @@
         <v>45510</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>45510.56855324074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>44958</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>44652</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>45678.54986111111</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
         <v>45576</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44454.33140046296</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44992.52275462963</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>45120</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>45120</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>45666.57021990741</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>45364.62685185186</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>45000</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37833,7 +37833,7 @@
         <v>44848</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37890,7 +37890,7 @@
         <v>45472.87659722222</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37947,7 +37947,7 @@
         <v>45525.36525462963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         <v>45050.43728009259</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>45050.44355324074</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>45762</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>45264.83583333333</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45650.84388888889</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38351,7 +38351,7 @@
         <v>44958</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45119</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45184</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38522,7 +38522,7 @@
         <v>45666.28506944444</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38584,7 +38584,7 @@
         <v>45421.43105324074</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38641,7 +38641,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45673.56837962963</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45684.38349537037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
         <v>44266</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38869,7 +38869,7 @@
         <v>45294</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38926,7 +38926,7 @@
         <v>45294</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38983,7 +38983,7 @@
         <v>45126</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39040,7 +39040,7 @@
         <v>45194</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39097,7 +39097,7 @@
         <v>45629.84854166667</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>45119.87762731482</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39211,7 +39211,7 @@
         <v>45119</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39268,7 +39268,7 @@
         <v>44866</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39325,7 +39325,7 @@
         <v>45232.6234837963</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39382,7 +39382,7 @@
         <v>45537.49616898148</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39439,7 +39439,7 @@
         <v>45412.39409722222</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>44742.39810185185</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45678</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>45440.46910879629</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>45205</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>45240.40409722222</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44980</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45316</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>44949</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45034</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45675.38304398148</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>44949</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>44914.61417824074</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45268.4834375</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45211</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45321</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40361,7 +40361,7 @@
         <v>45208.56241898148</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40418,7 +40418,7 @@
         <v>45762</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40480,7 +40480,7 @@
         <v>45119.72554398148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40537,7 +40537,7 @@
         <v>45632</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40594,7 +40594,7 @@
         <v>45730</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40651,7 +40651,7 @@
         <v>45629.87395833333</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40708,7 +40708,7 @@
         <v>45577.37951388889</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40765,7 +40765,7 @@
         <v>45776.3533912037</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40822,7 +40822,7 @@
         <v>45782.47429398148</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40879,7 +40879,7 @@
         <v>45475.4787037037</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40936,7 +40936,7 @@
         <v>45587.43356481481</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40993,7 +40993,7 @@
         <v>45784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41050,7 +41050,7 @@
         <v>45783.47327546297</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41107,7 +41107,7 @@
         <v>45783.47040509259</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41164,7 +41164,7 @@
         <v>45785.67664351852</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>45596.54247685185</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>45721.90905092593</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41335,7 +41335,7 @@
         <v>45209.67533564815</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41392,7 +41392,7 @@
         <v>45789.58822916666</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41449,7 +41449,7 @@
         <v>45789.59091435185</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         <v>45792.48877314815</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         <v>45726.63133101852</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41620,7 +41620,7 @@
         <v>45142</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41677,7 +41677,7 @@
         <v>45798.6024537037</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41734,7 +41734,7 @@
         <v>45798</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41796,7 +41796,7 @@
         <v>45800.59861111111</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>45801.81144675926</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45671.69804398148</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45119.33660879629</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45471</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45943</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44501</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45526</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>45950.57366898148</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44314</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45321</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>45604</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44817.71167824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45838.50899305556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>46042</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>46076.43472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45281</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45836</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>45204.51549768518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44958</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>45321</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>45824.44601851852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44748.4893287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44750.46633101852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>45846.45840277777</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45943</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>45153</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>45393.45601851852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45478.48630787037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>45153</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>45702.51854166666</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45264</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45260</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45686.32912037037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>45629.88878472222</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>45783.57771990741</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>45793.45925925926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45793.45805555556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>44448.39219907407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>44448.37072916667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44586</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>44512</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44656.34143518518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>44468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>44631.6496875</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>44280.59298611111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44293.36452546297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>44355.41885416667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>44617.45087962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44683</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44544.59994212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44355.64831018518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44488</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44313</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>44721</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44351.26809027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>44830</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44342.40263888889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>44817</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>44817</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>44538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44538.65876157407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44825.57486111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44462.72489583334</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44734</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44837</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44586</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44678.86274305556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44873</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44854</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44538.48643518519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44511.53631944444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44285.64561342593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44887.43643518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44886.31664351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44502.54430555556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44491</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44292.56182870371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44463</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>44523.31064814814</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>44350</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>44447.71224537037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>44447.6977662037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>44511.74078703704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44330.35582175926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44306.27186342593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44286</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44342</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44605.77613425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44845</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44845.48042824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44624</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44845</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44325</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44886</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44298</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>44463</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>44769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>44285.4638425926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>44886.33082175926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44323</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>44673.38596064815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44753</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44873</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44544.39546296297</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44565</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44319</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44550</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44882.34469907408</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44529.59217592593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44642</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44505.4665625</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44726</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>45194</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>45406.64324074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44879</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>45231.64703703704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>45755</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44916</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44958</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>45412.38614583333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45538.9009375</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>44445.46506944444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45050.44099537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>45379.44914351852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44837.45231481481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45474.63335648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45273.5790625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>44377.42493055556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45062</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45483.41152777777</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>45483.41474537037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44577.44398148148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>45546.36957175926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44964</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44630</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>45321</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>45453</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45803.62251157407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44858.56605324074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>45575.45246527778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45803.67650462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>45803.62123842593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44844.45476851852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>45805.41142361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44888</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>45210.44561342592</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>45216</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>45784.45983796296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>45608</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>45749.54219907407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45670</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>45887.39331018519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44639</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>45274</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>45646.48758101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>45888.45876157407</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44552</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>45888.40994212963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>45812.51912037037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>45812.51744212963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45888.4877662037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44656</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45715.56043981481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44964.60105324074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>45812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>45888.41420138889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44581.41039351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45812</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>45812.63560185185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>45104.70768518518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45817.62829861111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45817.635625</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>45577.38703703704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45688.48753472222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>45212.28642361111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>45582.46026620371</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44910.71126157408</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>45735</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>45816.77730324074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>45622.25892361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>45816.7725</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>45818.35608796297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>45678.53453703703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>45819.51068287037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>45819.51217592593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44941.67449074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>45579.44858796296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>45472.91881944444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>45821.59480324074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44389</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>45823.90710648148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>45821.58231481481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>45821.58418981481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>45547.33547453704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>45826.4077662037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>45895.44291666667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>45895.44659722222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>45898.42802083334</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>45593.24738425926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>45720.42122685185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45727.64140046296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45723.46748842593</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45715.84982638889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45902.40304398148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45734.43109953704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45730.58797453704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45730.59189814814</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45582.51785879629</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44630</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45902.39866898148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45453.46512731481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45827</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45054</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45727.64462962963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45832.43942129629</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45832.36346064815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45225</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45832.434375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45723.50204861111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45832.71377314815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44748.42736111111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45577.37418981481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45187</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45836.41789351852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>45015.62293981481</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>45836.42394675926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>45909.44909722222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>45839</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>45343</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45456.87540509259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44746</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>45762.41231481481</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>45841.9329050926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>45841.92826388889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>45841.92988425926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>45308</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>45258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>45356.63008101852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>45841.50565972222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>45909.19603009259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>45603.57885416667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>45842.45538194444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>45842.47792824074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>45392.32388888889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44987.49986111111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>45846.65206018519</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>45393.46065972222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45058.47872685185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>45611.4719212963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>45674.66657407407</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>45637</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>45848.45915509259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>45058</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>45848.46100694445</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>45119.50736111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>45119.51900462963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45638.48190972222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44993.76420138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45915.58019675926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>45119</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>45119.8443287037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>45855.70284722222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>45103.55524305555</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>45855.34162037037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>45855.29523148148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>45855.3478125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>45860</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45839</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45392.32304398148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>45917.89658564814</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>45917.85200231482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>45917.86940972223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45866.57512731481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>45922</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45863.6363425926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>45864.64525462963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>45868.65326388889</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>45922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45629.79951388889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45629.80734953703</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45629.82334490741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45922</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>45119</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>45582.48012731481</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45924.57015046296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45867.59960648148</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45868.6805787037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45392.32523148148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45204.37236111111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45868.69543981482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45868.69075231482</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44351</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45120</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45925.50118055556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45870.70042824074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45870.70177083334</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45870</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44882</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45925.5033912037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45930.62087962963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45930.38498842593</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45612.44818287037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45610.69145833333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45929.49510416666</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45776.489375</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45873.40289351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45929.49907407408</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45931</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45567.66493055555</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>45477</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>45225.44538194445</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45930.84449074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45098</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45877.46954861111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45931</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         <v>45678</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>45931</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45510</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45931</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45775</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45176.60104166667</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45935.72084490741</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45728.63600694444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45671.63178240741</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45935.58040509259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45935.5899074074</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45176.47136574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45547.33179398148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45093</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45273.56533564815</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>45140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>45113.25549768518</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>45202</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>45937.66361111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>45938.48791666667</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44467</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45938.49927083333</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>45267.40234953703</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45197.4696412037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>45673.57069444445</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>45053.91832175926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         <v>45168.94686342592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>45940.74016203704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44571.43929398148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>45944</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>45944.33063657407</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>45210.50472222222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>45803.61898148148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45914.90981481481</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45943</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>45946.64105324074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>45599.53886574074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>45937.66010416667</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>45085.35982638889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>45538.42341435186</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45044.62524305555</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>45947.46091435185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44897.45479166666</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>45947.47458333334</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45947.63052083334</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>45947.63421296296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45646.49038194444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>45211</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>45730.64863425926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>45096</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44589</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45952.64878472222</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45638.55909722222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44896.43377314815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45216</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45110.43325231481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45952.66685185185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45771.49827546296</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44866</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45727.68160879629</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>45953.85310185186</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24816,7 +24816,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>45770.4802662037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>45770.49056712963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>45958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>45953.87792824074</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44489.54841435186</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>45321</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>45960.31606481481</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>45959.74376157407</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>45294</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44546.44887731481</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44448</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>45960.70804398148</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>45379.3350462963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>45379.33895833333</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45961.57664351852</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45120</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45120.93417824074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>45120</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>45964.4425462963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45961.48994212963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>45337</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>45120</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>45329.88466435186</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>45271</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>45772.42921296296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>45462.53766203704</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>45968.45446759259</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>45968.44337962963</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>45062</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>45545.75199074074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>45294</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44889.42746527777</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45348.60578703704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>45974</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45120</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>45316</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44546.4675462963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45637</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45979.47140046296</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>45593.24111111111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45979.47361111111</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45162.51400462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45611.5891550926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45982</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45982</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45981.54357638889</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45392.32475694444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45982</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>45982</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>45562.38952546296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44609</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>45670.45423611111</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>45985.62841435185</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28115,7 +28115,7 @@
         <v>45985.49490740741</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45155</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>44515</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>45988.64767361111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>45629.84033564815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45217.54106481482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45630</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>45126</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>45992.65892361111</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45196</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>44547.38486111111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>45989.47251157407</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28861,7 +28861,7 @@
         <v>45357.68982638889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28918,7 +28918,7 @@
         <v>45054</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>45985</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>45631</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29089,7 +29089,7 @@
         <v>45671.46813657408</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29146,7 +29146,7 @@
         <v>44644</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>45994.48487268519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>45994.49568287037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29317,7 +29317,7 @@
         <v>45351.45969907408</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>45472.88256944445</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29431,7 +29431,7 @@
         <v>45579.45614583333</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29488,7 +29488,7 @@
         <v>45996.37564814815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45845</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45119.55572916667</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45432</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>44639.43059027778</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>45817</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45316.24631944444</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45321</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>45196</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44564.85040509259</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45190.60921296296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>46041.606875</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45671.69181712963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45351.63769675926</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45569.58503472222</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45608.65652777778</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45636.46734953704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>46044.46568287037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>46042.88488425926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>45231.6437037037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45205</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45675.39164351852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>45212</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>45629.81206018518</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>46008.39219907407</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>45099</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>45126.68759259259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>45119.91186342593</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31151,7 +31151,7 @@
         <v>45119</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         <v>46008.48265046296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>46008.70103009259</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31322,7 +31322,7 @@
         <v>45685.68934027778</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>45660.41302083333</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>45516.44384259259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>45741.44355324074</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>44266.38083333334</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>44266.3884837963</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>45264</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>45604</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>45670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31840,7 +31840,7 @@
         <v>45688.47015046296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31897,7 +31897,7 @@
         <v>45698.59190972222</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31954,7 +31954,7 @@
         <v>45120</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>45240.34545138889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>45711.66600694445</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>45615</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>45701.7716087963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>45713</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         <v>45713.68238425926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         <v>45302.36549768518</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>44704</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>45715.56778935185</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>45688.77064814815</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>45699.40152777778</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>45749.54398148148</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>45239</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32762,7 +32762,7 @@
         <v>45699.41542824074</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32819,7 +32819,7 @@
         <v>45700</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45701.76197916667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32933,7 +32933,7 @@
         <v>45702</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32990,7 +32990,7 @@
         <v>45315.46555555556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>45186.96988425926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33104,7 +33104,7 @@
         <v>45233</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>45758.58627314815</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>45268.47841435186</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>46059.30708333333</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>45756</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>45289.42331018519</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>44804.61065972222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>45321</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>44839</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>45727.60891203704</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>45321</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>45316</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45240.40667824074</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>45240.42798611111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>44916</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>44750</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>45294.55914351852</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34150,7 +34150,7 @@
         <v>44897</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>45321</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45240</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45294</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45189</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45548</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45588.65774305556</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45693.54440972222</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45197.46625</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45224</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45582.50539351852</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45197.56680555556</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45223</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45180.63178240741</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>44964</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45215.36408564815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>46076.48876157407</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>44875.70405092592</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>46076.49167824074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45561.63293981482</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45462.70604166666</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>44914.61763888889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>46052</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>46035.48997685185</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45769.38744212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>46036.47381944444</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>46036.47501157408</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>44900</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>46042.58833333333</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>44489.4964699074</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45294</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45015</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>44995</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>44420.49086805555</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45007</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>46037.42465277778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36207,7 +36207,7 @@
         <v>44592</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>45048.4243287037</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>45301</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44771</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>45546.37292824074</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>45593.53931712963</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>46037.44241898148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>45308</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>44656.46391203703</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45308</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>45350</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>45379.33655092592</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>45670.44511574074</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36968,7 +36968,7 @@
         <v>45511.4987962963</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37030,7 +37030,7 @@
         <v>44354.87269675926</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37087,7 +37087,7 @@
         <v>45510</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>45510.56855324074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>44958</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>44652</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>45678.54986111111</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
         <v>45576</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44454.33140046296</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44992.52275462963</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>45120</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>45120</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>45666.57021990741</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>45364.62685185186</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>45000</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37833,7 +37833,7 @@
         <v>44848</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37890,7 +37890,7 @@
         <v>45472.87659722222</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37947,7 +37947,7 @@
         <v>45525.36525462963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         <v>45050.43728009259</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>45050.44355324074</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>45762</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>45264.83583333333</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45650.84388888889</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38351,7 +38351,7 @@
         <v>44958</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45119</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45184</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38522,7 +38522,7 @@
         <v>45666.28506944444</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38584,7 +38584,7 @@
         <v>45421.43105324074</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38641,7 +38641,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45673.56837962963</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45684.38349537037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
         <v>44266</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38869,7 +38869,7 @@
         <v>45294</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38926,7 +38926,7 @@
         <v>45294</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38983,7 +38983,7 @@
         <v>45126</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39040,7 +39040,7 @@
         <v>45194</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39097,7 +39097,7 @@
         <v>45629.84854166667</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>45119.87762731482</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39211,7 +39211,7 @@
         <v>45119</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39268,7 +39268,7 @@
         <v>44866</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39325,7 +39325,7 @@
         <v>45232.6234837963</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39382,7 +39382,7 @@
         <v>45537.49616898148</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39439,7 +39439,7 @@
         <v>45412.39409722222</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>44742.39810185185</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45678</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>45440.46910879629</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>45205</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>45240.40409722222</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44980</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45316</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>44949</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45034</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45675.38304398148</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>44949</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>44914.61417824074</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45268.4834375</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45211</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45321</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40361,7 +40361,7 @@
         <v>45208.56241898148</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40418,7 +40418,7 @@
         <v>45762</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40480,7 +40480,7 @@
         <v>45119.72554398148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40537,7 +40537,7 @@
         <v>45632</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40594,7 +40594,7 @@
         <v>45730</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40651,7 +40651,7 @@
         <v>45629.87395833333</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40708,7 +40708,7 @@
         <v>45577.37951388889</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40765,7 +40765,7 @@
         <v>45776.3533912037</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40822,7 +40822,7 @@
         <v>45782.47429398148</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40879,7 +40879,7 @@
         <v>45475.4787037037</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40936,7 +40936,7 @@
         <v>45587.43356481481</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40993,7 +40993,7 @@
         <v>45784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41050,7 +41050,7 @@
         <v>45783.47327546297</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41107,7 +41107,7 @@
         <v>45783.47040509259</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41164,7 +41164,7 @@
         <v>45785.67664351852</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>45596.54247685185</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>45721.90905092593</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41335,7 +41335,7 @@
         <v>45209.67533564815</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41392,7 +41392,7 @@
         <v>45789.58822916666</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41449,7 +41449,7 @@
         <v>45789.59091435185</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         <v>45792.48877314815</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         <v>45726.63133101852</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41620,7 +41620,7 @@
         <v>45142</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41677,7 +41677,7 @@
         <v>45798.6024537037</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41734,7 +41734,7 @@
         <v>45798</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41796,7 +41796,7 @@
         <v>45800.59861111111</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>45801.81144675926</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
